--- a/farewell_data.xlsx
+++ b/farewell_data.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SEM6\farewell\farewell\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C4D990-5C98-4855-8204-C44803C7F5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
   <si>
     <t>Timestamp</t>
   </si>
@@ -312,6 +303,9 @@
 Your drops are game-changers</t>
   </si>
   <si>
+    <t>Who am I?</t>
+  </si>
+  <si>
     <t xml:space="preserve">You always gave your best in every game and helped others do the same. Thank you for being so supportive. Wishing you lots of success and happiness ahead!
 </t>
   </si>
@@ -368,25 +362,33 @@
     <t xml:space="preserve">Aapne hamesha hame guide kiya hai, tips di hai, thank you didi! </t>
   </si>
   <si>
-    <t>Who Am I?</t>
+    <t>Muze bhi Guess hi Bhaiya and Didi log</t>
+  </si>
+  <si>
+    <t>Thanks for everything you have done for the team 🙏 and your very supportive juniors which make us believe our self in hard times.</t>
+  </si>
+  <si>
+    <t>Big fan for your coolness and confidence in matches we may not see a setter like you in the future for iitgn.A gem</t>
+  </si>
+  <si>
+    <t>You have to stop think that what other thinks and do things the way you like.your a pure hearted person .</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -397,17 +399,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="12">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -421,7 +417,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -436,7 +431,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -451,7 +445,6 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -466,7 +459,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -481,7 +473,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -496,7 +487,6 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -511,7 +501,6 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -526,7 +515,6 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -541,147 +529,164 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="15">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFF8F9FA"/>
           <bgColor rgb="FFF8F9FA"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF5B3F86"/>
-          <bgColor rgb="FF5B3F86"/>
-        </patternFill>
-      </fill>
+      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
+      <tableStyleElement dxfId="1" type="headerRow"/>
+      <tableStyleElement dxfId="2" type="firstRowStripe"/>
+      <tableStyleElement dxfId="3" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:L10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L11" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Abhinav  bhaiya"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Tatu  bhaiya"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Barde  bhaiya"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Shiva bhaiya"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Anjana didi"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="priyanka didi"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Swati didi"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Nidhi didi"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Shubham Bhaiya"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Manas bhaiya"/>
+    <tableColumn name="Timestamp" id="1"/>
+    <tableColumn name="Name" id="2"/>
+    <tableColumn name="Abhinav  bhaiya" id="3"/>
+    <tableColumn name="Tatu  bhaiya" id="4"/>
+    <tableColumn name="Barde  bhaiya" id="5"/>
+    <tableColumn name="Shiva bhaiya" id="6"/>
+    <tableColumn name="Anjana didi" id="7"/>
+    <tableColumn name="priyanka didi" id="8"/>
+    <tableColumn name="Swati didi" id="9"/>
+    <tableColumn name="Nidhi didi" id="10"/>
+    <tableColumn name="Shubham Bhaiya" id="11"/>
+    <tableColumn name="Manas bhaiya" id="12"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -871,29 +876,26 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="18.88671875" customWidth="1"/>
+    <col customWidth="1" min="1" max="18" width="18.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,9 +933,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="4">
-        <v>45767.683900671298</v>
+        <v>45767.6839006713</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>12</v>
@@ -969,9 +971,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="7">
-        <v>45767.687762407411</v>
+        <v>45767.68776240741</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>14</v>
@@ -998,45 +1000,45 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="4">
+      <c r="A4" s="9">
         <v>45767.690591226856</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="7">
         <v>45767.695967638894</v>
       </c>
@@ -1070,45 +1072,45 @@
       <c r="K5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>45767.709929004632</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="6">
+      <c r="A6" s="9">
+        <v>45767.70992900463</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="7">
-        <v>45767.731777465277</v>
+        <v>45767.73177746528</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>50</v>
@@ -1138,109 +1140,126 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="9">
         <v>45767.732955879634</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="10" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" s="7">
         <v>45767.733837754626</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9">
+        <v>45767.7551671875</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>45767.755167187497</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>85</v>
+    <row r="11">
+      <c r="A11" s="13">
+        <v>45767.76726270834</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/farewell_data.xlsx
+++ b/farewell_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="100">
   <si>
     <t>Timestamp</t>
   </si>
@@ -372,6 +372,48 @@
   </si>
   <si>
     <t>You have to stop think that what other thinks and do things the way you like.your a pure hearted person .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vivek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhaiya are the most motivating player . Player ke bad 
+Senior adviser ki post aapke ke best h mujhe ek bar aapki captaincy me khelna tha vo *sml* me khle liya.😁
+Bhaiya bike thodi slow chlaya kro 😅
+Day one pe lga ki bhai sab ke kon h in bhaiya ne to bhout attitude h bde gusse vale h  but gradually you are like big brother 🙃
+Best wishes for you </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aapki captaincy me volleyball iitgn  ne phla tournament jita spoke summit or inter IIT me bhi aapn pre quarters  me pahuche 
+Or ha bhaiya mere bhout jyada bolne ka hisab game me pura ho gya tha na  🙃😁
+Bhaiya aapka time to time kudasan jana 😁😅
+</t>
+  </si>
+  <si>
+    <t>Bhaiya aapki calmness ka me fan ho gya jab bhi tatu , abhinav bhaiya over aggression me hote the you were the the middle men 
+Aapke sath intelectual bate krne me bde mje aate the . Aapki set ki hue ball le taappe marne me bde mje aate the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garu bhaiya 🙃😅  aapka har bat pr salah dena .
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didi jab aapse phli abt mila to me dr dya tha aap is time pr abhinav  bhaiya me gussa kr rhe the   
+Then I was like iitne gusse vale senior then uske bad kabhi aapka gussa nhi dekha mene 
+Aapka bar bar. Muje ye bolna ki bibek muje hote bhadani h kya kr hu 😆
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Didi you are like the don 😆😅  aapka vo thada sa guise vala fce usme aap bhout funny lgte ho 🙂
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are the most cutest senior 🙃😅 
+Aapki serve ke bde charche h volleyball samj </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I found you as the most serious senior among all maine aajoo jyada mjak masti krte huee nhi Deka h .
+Aapke bina aaki team </t>
   </si>
 </sst>
 </file>
@@ -535,10 +577,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -546,13 +588,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -666,7 +708,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L11" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L12" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="12">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Name" id="2"/>
@@ -1240,20 +1282,52 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13">
+      <c r="A11" s="7">
         <v>45767.76726270834</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="8" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13">
+        <v>45767.84058173611</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
